--- a/land/HomeNotes.xlsx
+++ b/land/HomeNotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willc\Desktop\will\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\will\work\tasks\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3E1BD2-F91B-43D8-B271-9A91BC736488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751379E2-083A-48D8-8D46-5C1743F8DEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="14535" windowWidth="29040" windowHeight="15720" xr2:uid="{F476CB59-A50A-4C27-99DD-D4C35DDDEC4E}"/>
+    <workbookView xWindow="-28920" yWindow="-1665" windowWidth="29040" windowHeight="15720" xr2:uid="{F476CB59-A50A-4C27-99DD-D4C35DDDEC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
   <si>
     <t>address</t>
   </si>
@@ -75,19 +75,202 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Floodzone</t>
+  </si>
+  <si>
+    <t>Surveys</t>
+  </si>
+  <si>
+    <t>Tax Estimation</t>
+  </si>
+  <si>
+    <t>Last Sold Price</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time on Market</t>
+  </si>
+  <si>
+    <t>Road Access</t>
+  </si>
+  <si>
+    <t>Easements</t>
+  </si>
+  <si>
+    <t>Neighbors</t>
+  </si>
+  <si>
+    <t>Township</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Back Taxes and Liens</t>
+  </si>
+  <si>
+    <t>Water and Mineral Rights</t>
+  </si>
+  <si>
+    <t>Owner Financing</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>391 Parker Rd, New Bern, NC 28562</t>
+  </si>
+  <si>
+    <t>35.158000, -77.154400</t>
+  </si>
+  <si>
+    <t>https://www.landwatch.com/craven-county-north-carolina-undeveloped-land-for-sale/pid/419421285</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>New Bern</t>
+  </si>
+  <si>
+    <t>down payment of just $3,787.33 and monthly payments as low as $282.58 over 72 months, $313.68 over 60 months, or just $360.96 for a quick 48-month payoff</t>
+  </si>
+  <si>
+    <t>517 Arant Farm Rd Merritt, NC 28587</t>
+  </si>
+  <si>
+    <t>https://www.landsearch.com/properties/517-arant-farm-rd-merritt-nc-28587/4055002</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>35.14, -76.686</t>
+  </si>
+  <si>
+    <t>Merritt</t>
+  </si>
+  <si>
+    <t>Masons Pointe</t>
+  </si>
+  <si>
+    <t>152 Vermont Ave Washington, NC 27889</t>
+  </si>
+  <si>
+    <t>35.521, -77.0012</t>
+  </si>
+  <si>
+    <t>https://www.landsearch.com/properties/152-vermont-ave-washington-nc-27889/4039029</t>
+  </si>
+  <si>
+    <t>Newberry Lndg Roper, NC 27970</t>
+  </si>
+  <si>
+    <t>35.9647, -76.4616</t>
+  </si>
+  <si>
+    <t>https://www.landsearch.com/properties/newberry-lndg-roper-nc-27970/3333326</t>
+  </si>
+  <si>
+    <t>Realtor company</t>
+  </si>
+  <si>
+    <t>Realtor Name</t>
+  </si>
+  <si>
+    <t>Realtor Phone Number</t>
+  </si>
+  <si>
+    <t>Realtor email</t>
+  </si>
+  <si>
+    <t>Lime Rock Realty</t>
+  </si>
+  <si>
+    <t>Maggie Bohannon</t>
+  </si>
+  <si>
+    <t>136 Colleton Cir Edenton, NC 27932</t>
+  </si>
+  <si>
+    <t>36.081, -76.4863</t>
+  </si>
+  <si>
+    <t>https://www.landsearch.com/properties/136-colleton-cir-edenton-nc-27932/2394538</t>
+  </si>
+  <si>
+    <t>Carolina east Real estate</t>
+  </si>
+  <si>
+    <t>Amber Hardy</t>
+  </si>
+  <si>
+    <t>222 Osprey Dr Edenton, NC 27932</t>
+  </si>
+  <si>
+    <t>36.0672, -76.4139</t>
+  </si>
+  <si>
+    <t>https://www.landsearch.com/properties/222-osprey-dr-edenton-nc-27932/2750640</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Perry and co Sotheby's International Realty</t>
+  </si>
+  <si>
+    <t>Claire Evans</t>
+  </si>
+  <si>
+    <t>Meadow Rd Kenly, NC 27542</t>
+  </si>
+  <si>
+    <t>35.6511, -78.1833</t>
+  </si>
+  <si>
+    <t>https://www.landsearch.com/properties/meadow-rd-kenly-nc-27542/3760851</t>
+  </si>
+  <si>
+    <t>Michael DeFrancisis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,8 +293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,56 +633,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E60CC7A-F9C1-401C-A0A9-EDBF365A35D7}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>34900</v>
+      </c>
+      <c r="D3">
+        <v>1.18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="3">
+        <v>45598</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8500</v>
+      </c>
+      <c r="D4">
+        <v>0.23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="4">
+        <v>45593</v>
+      </c>
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="D5">
+        <v>0.37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="4">
+        <v>45244</v>
+      </c>
+      <c r="V5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5">
+        <v>3366088871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2">
+        <v>49000</v>
+      </c>
+      <c r="D6">
+        <v>0.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="4">
+        <v>44744</v>
+      </c>
+      <c r="V6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6">
+        <v>2523126154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>138500</v>
+      </c>
+      <c r="D7">
+        <v>1.64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>952</v>
+      </c>
+      <c r="U7" s="4">
+        <v>44956</v>
+      </c>
+      <c r="V7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7">
+        <v>2523336596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27500</v>
+      </c>
+      <c r="D8">
+        <v>0.51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8">
+        <v>144</v>
+      </c>
+      <c r="U8" s="4">
+        <v>45463</v>
+      </c>
+      <c r="V8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8">
+        <v>7049973290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>